--- a/Profile_ChargeItem.xlsx
+++ b/Profile_ChargeItem.xlsx
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="65">
   <si>
     <t>FIELDS FROM FHIR Resource</t>
   </si>
@@ -169,6 +169,91 @@
   </si>
   <si>
     <t>ChargeItem.supportingInformation</t>
+  </si>
+  <si>
+    <t>Reference(Patient | Group)</t>
+  </si>
+  <si>
+    <t>Reference(Encounter | EpisodeOfCare)</t>
+  </si>
+  <si>
+    <t>Reference(Practitioner | Organization | Patient | Device | RelatedPerson)</t>
+  </si>
+  <si>
+    <t>Reference(Organization)</t>
+  </si>
+  <si>
+    <t>Reference(Account)</t>
+  </si>
+  <si>
+    <t>Reference(DiagnosticReport | ImagingStudy | Immunization | MedicationAdministration | MedicationDispense | Observation | Procedure | SupplyDelivery)</t>
+  </si>
+  <si>
+    <t>Reference(Any)</t>
+  </si>
+  <si>
+    <t>Varies by domain</t>
+  </si>
+  <si>
+    <t>Reference(ChargeItem)
+Varies by domain</t>
+  </si>
+  <si>
+    <t>FT1.2</t>
+  </si>
+  <si>
+    <t>FT1.7</t>
+  </si>
+  <si>
+    <t>EVN.5 or by domain</t>
+  </si>
+  <si>
+    <t>FT1.10</t>
+  </si>
+  <si>
+    <t>FT1.26</t>
+  </si>
+  <si>
+    <t>FT1.22</t>
+  </si>
+  <si>
+    <t>EVN.4 or by domain</t>
+  </si>
+  <si>
+    <t>EVN.5</t>
+  </si>
+  <si>
+    <t>EVN.4</t>
+  </si>
+  <si>
+    <t>FT1.TransactionID</t>
+  </si>
+  <si>
+    <t>FT1.TransactionCode</t>
+  </si>
+  <si>
+    <t>FT1.TransactionQuantity</t>
+  </si>
+  <si>
+    <t>FT1.ProcedureCodeModifier</t>
+  </si>
+  <si>
+    <t>FT1.UnitCost</t>
+  </si>
+  <si>
+    <t>EVN.EventReasonCode</t>
+  </si>
+  <si>
+    <t>EVN.OperatorID</t>
+  </si>
+  <si>
+    <t>NTE.Comment</t>
+  </si>
+  <si>
+    <t>NTE.3</t>
+  </si>
+  <si>
+    <t>?</t>
   </si>
 </sst>
 </file>
@@ -298,15 +383,6 @@
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -320,6 +396,15 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -600,7 +685,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:B1"/>
@@ -609,343 +694,423 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="47.5703125" customWidth="1"/>
-    <col min="2" max="2" width="45.7109375" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1"/>
+    <col min="3" max="3" width="30.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="45.7109375" customWidth="1"/>
     <col min="5" max="5" width="20.7109375" customWidth="1"/>
     <col min="6" max="6" width="45.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="10"/>
+      <c r="C1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="4" t="s">
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
+      <c r="B3" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="8" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
+      <c r="B7" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
+      <c r="B14" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
+      <c r="B16" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
+      <c r="B19" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
+      <c r="A20" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
+      <c r="B21" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
+      <c r="A22" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
+      <c r="B22" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
+      <c r="B24" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
+      <c r="B26" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
+      <c r="A27" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
+      <c r="B27" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
+      <c r="B29" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="10"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="8"/>
-      <c r="B32" s="12"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6" t="s">
+        <v>43</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
